--- a/02_画面設計書/01_画面設計書.xlsx
+++ b/02_画面設計書/01_画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asofs1\SEC_ABCC\システム系\学科\システム開発分野2年\2022\07_企業連携\ドキュメント関連\設計書フォーマット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web\github\2023Dev3Early\02_画面設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCCA21D-E230-4C72-AE2A-474C0FA68D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C39057-3BCA-46F0-8702-E1D5FC44AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="25515" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -103,16 +103,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>xxxx/xx/xx</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -132,16 +128,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>xxxxxxxxxx科2年　クラス</t>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -170,14 +156,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ＰＭ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ＰＬ</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>担当</t>
@@ -690,6 +668,55 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本藤</t>
+    <rPh sb="0" eb="2">
+      <t>ホンドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>情報工学科3年　Aクラス グループ5</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウガクカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>林田</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤシダ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1061,12 +1088,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,9 +1206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1358,6 +1376,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1376,6 +1436,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1397,60 +1469,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1508,6 +1526,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1541,13 +1568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2361,52 +2388,52 @@
   </sheetPr>
   <dimension ref="A1:FT30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="150" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="4.125" style="10" customWidth="1"/>
-    <col min="9" max="32" width="4.125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.08984375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="4.08984375" style="10" customWidth="1"/>
+    <col min="9" max="32" width="4.08984375" style="1" customWidth="1"/>
     <col min="33" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
@@ -2552,7 +2579,7 @@
       <c r="FS1" s="3"/>
       <c r="FT1" s="3"/>
     </row>
-    <row r="2" spans="1:176" ht="22.5" customHeight="1">
+    <row r="2" spans="1:176" ht="22.55" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2577,17 +2604,17 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="138" t="s">
+      <c r="Y2" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="23"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="186">
+        <v>45033</v>
+      </c>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="21"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
@@ -2651,8 +2678,8 @@
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-      <c r="Y4" s="18" t="s">
-        <v>2</v>
+      <c r="Y4" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -2687,8 +2714,8 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="18" t="s">
-        <v>3</v>
+      <c r="Y5" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -2698,28 +2725,28 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:176" ht="19.5" customHeight="1">
+    <row r="6" spans="1:176" ht="19.55" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="147" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
+      <c r="B6" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="73"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -2738,24 +2765,24 @@
     </row>
     <row r="7" spans="1:176" ht="15" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142"/>
+      <c r="B7" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="132"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -2763,40 +2790,40 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="138" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="139"/>
-      <c r="AC7" s="138" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="71"/>
+      <c r="Y7" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="128" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="68"/>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:176" ht="15" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="145"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="135"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2804,14 +2831,20 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="71"/>
+      <c r="Y8" s="136" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="136" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="136" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="68"/>
       <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:176" ht="15" customHeight="1">
@@ -2839,14 +2872,14 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="127"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="71"/>
+      <c r="Y9" s="138"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="68"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:176" ht="15" customHeight="1">
@@ -2874,14 +2907,14 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="129"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="129"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="130"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="71"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="141"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="68"/>
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15" customHeight="1">
@@ -2920,208 +2953,208 @@
     </row>
     <row r="12" spans="1:176" ht="15" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="146" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="17"/>
+      <c r="B12" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="142"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="142"/>
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:176" ht="15" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="17"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="142"/>
+      <c r="P13" s="142"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="142"/>
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:176" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="17"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:176" ht="15" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="17"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="17"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="17"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
@@ -3161,7 +3194,7 @@
     <row r="19" spans="1:32" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="2"/>
@@ -3230,316 +3263,324 @@
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="122" t="s">
+      <c r="B21" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="AC21" s="123"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="16"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="120"/>
+      <c r="AD21" s="121"/>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="123"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="16"/>
+      <c r="B22" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="125">
+        <v>45033</v>
+      </c>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="122" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="123"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="123"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="121"/>
+      <c r="AE22" s="14"/>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="122"/>
-      <c r="AC23" s="123"/>
-      <c r="AD23" s="124"/>
-      <c r="AE23" s="16"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
+      <c r="T23" s="123"/>
+      <c r="U23" s="123"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="119"/>
+      <c r="AC23" s="120"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="14"/>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="122"/>
-      <c r="AC24" s="123"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="16"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
+      <c r="S24" s="123"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="123"/>
+      <c r="V24" s="123"/>
+      <c r="W24" s="123"/>
+      <c r="X24" s="123"/>
+      <c r="Y24" s="123"/>
+      <c r="Z24" s="123"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="119"/>
+      <c r="AC24" s="120"/>
+      <c r="AD24" s="121"/>
+      <c r="AE24" s="14"/>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32" ht="15" customHeight="1">
       <c r="A25" s="2"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="123"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="16"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="123"/>
+      <c r="Q25" s="123"/>
+      <c r="R25" s="123"/>
+      <c r="S25" s="123"/>
+      <c r="T25" s="123"/>
+      <c r="U25" s="123"/>
+      <c r="V25" s="123"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="123"/>
+      <c r="Y25" s="123"/>
+      <c r="Z25" s="123"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="120"/>
+      <c r="AD25" s="121"/>
+      <c r="AE25" s="14"/>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="122"/>
-      <c r="AC26" s="123"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="16"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="123"/>
+      <c r="Q26" s="123"/>
+      <c r="R26" s="123"/>
+      <c r="S26" s="123"/>
+      <c r="T26" s="123"/>
+      <c r="U26" s="123"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="123"/>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="123"/>
+      <c r="Z26" s="123"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="119"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="121"/>
+      <c r="AE26" s="14"/>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32" ht="15" customHeight="1">
       <c r="A27" s="2"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="122"/>
-      <c r="AC27" s="123"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="16"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="123"/>
+      <c r="S27" s="123"/>
+      <c r="T27" s="123"/>
+      <c r="U27" s="123"/>
+      <c r="V27" s="123"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="123"/>
+      <c r="Y27" s="123"/>
+      <c r="Z27" s="123"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="119"/>
+      <c r="AC27" s="120"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1">
       <c r="A28" s="2"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1">
       <c r="A29" s="2"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32" ht="15" customHeight="1">
@@ -3577,16 +3618,22 @@
       <c r="AF30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="K21:AA21"/>
-    <mergeCell ref="K22:AA22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="K25:AA25"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:J22"/>
+  <mergeCells count="40">
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AC8:AD10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="Y8:Z10"/>
+    <mergeCell ref="B12:AD14"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="AB27:AD27"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="K23:AA23"/>
@@ -3603,20 +3650,15 @@
     <mergeCell ref="K27:AA27"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="F7:Q8"/>
-    <mergeCell ref="Y8:Z10"/>
-    <mergeCell ref="B12:AD14"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AC8:AD10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="K21:AA21"/>
+    <mergeCell ref="K22:AA22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="K25:AA25"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -3630,289 +3672,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2FA301-F346-4BB4-A6BC-EB44CCEDDEA4}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.26953125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.26953125" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.26953125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="59"/>
+    </row>
+    <row r="2" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A2" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="50"/>
+    </row>
+    <row r="3" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="61"/>
-    </row>
-    <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="25" t="s">
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="165" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="52"/>
-    </row>
-    <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="25" t="s">
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A5" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="165" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="25" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="165" t="s">
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="52"/>
-    </row>
-    <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="52"/>
-    </row>
-    <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="52"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="50"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="48"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
@@ -5164,484 +5206,484 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="46.25" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="46.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:9" ht="19.55" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A2" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="169"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A3" s="167"/>
+      <c r="B3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A4" s="168"/>
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="169"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A5" s="166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A6" s="168"/>
+      <c r="B6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="169"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="21.05" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A2" s="169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="54"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A3" s="170"/>
-      <c r="B3" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="54"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="171"/>
-      <c r="B4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="172"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="26" t="s">
+      <c r="D9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="54"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="169" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="171"/>
-      <c r="B6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="I9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="41"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="31"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="41"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="31"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="31"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="31"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="31"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="31"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="31"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="31"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="31"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="31"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="29"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="31"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="31"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="31"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="29"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="41"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="41"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="39"/>
     </row>
     <row r="37" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="31"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="31"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5656,7 +5698,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5665,289 +5707,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.25" style="10" customWidth="1"/>
-    <col min="7" max="33" width="4.25" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.26953125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.26953125" style="10" customWidth="1"/>
+    <col min="7" max="33" width="4.26953125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A1" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="61"/>
+      <c r="A1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="50"/>
+    </row>
+    <row r="3" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="25" t="s">
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A4" s="159"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="165" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="52"/>
-    </row>
-    <row r="3" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="25" t="s">
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A5" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="165" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A4" s="162"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="25" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="165" t="s">
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="52"/>
-    </row>
-    <row r="5" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A5" s="156" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="165" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="52"/>
-    </row>
-    <row r="6" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="165" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="52"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="50"/>
     </row>
     <row r="7" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="50"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="48"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" customHeight="1">
       <c r="A8" s="5"/>
@@ -7203,915 +7245,921 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.6328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="14" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="5" max="10" width="8.6328125" customWidth="1"/>
+    <col min="11" max="14" width="8.08984375" customWidth="1"/>
     <col min="15" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="186" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188"/>
-    </row>
-    <row r="2" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="174"/>
+    </row>
+    <row r="2" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="175" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="176"/>
-      <c r="C2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="C2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
       <c r="Q2" s="181" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R2" s="182"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="93"/>
-    </row>
-    <row r="3" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+    </row>
+    <row r="3" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="177"/>
       <c r="B3" s="178"/>
-      <c r="C3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="169"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="181" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R3" s="182"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-    </row>
-    <row r="4" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="S3" s="89"/>
+      <c r="T3" s="90"/>
+    </row>
+    <row r="4" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="179"/>
       <c r="B4" s="180"/>
-      <c r="C4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
+      <c r="C4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="169"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
       <c r="Q4" s="181" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R4" s="182"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="93"/>
-    </row>
-    <row r="5" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
+    </row>
+    <row r="5" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="175" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="176"/>
-      <c r="C5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
+      <c r="C5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
       <c r="Q5" s="181" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R5" s="182"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="93"/>
-    </row>
-    <row r="6" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
+    </row>
+    <row r="6" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="177"/>
       <c r="B6" s="178"/>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
+      <c r="C6" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="183"/>
       <c r="E6" s="184"/>
       <c r="F6" s="185" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" s="185"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="112"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="93"/>
-    </row>
-    <row r="7" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="109"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="90"/>
+    </row>
+    <row r="7" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="179"/>
       <c r="B7" s="180"/>
-      <c r="C7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
+      <c r="C7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
       <c r="Q7" s="181"/>
       <c r="R7" s="182"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-    </row>
-    <row r="8" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="45" t="s">
+      <c r="S7" s="89"/>
+      <c r="T7" s="90"/>
+    </row>
+    <row r="8" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+    </row>
+    <row r="9" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="98"/>
+    </row>
+    <row r="10" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="99"/>
+    </row>
+    <row r="11" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="99"/>
+    </row>
+    <row r="12" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="99"/>
+    </row>
+    <row r="13" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="99"/>
+    </row>
+    <row r="14" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="99"/>
+    </row>
+    <row r="15" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="99"/>
+    </row>
+    <row r="16" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="99"/>
+    </row>
+    <row r="17" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="94"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="99"/>
+    </row>
+    <row r="18" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="94"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="99"/>
+    </row>
+    <row r="19" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="94"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="99"/>
+    </row>
+    <row r="20" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="99"/>
+    </row>
+    <row r="21" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="94"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="99"/>
+    </row>
+    <row r="22" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="94"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="99"/>
+    </row>
+    <row r="23" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="94"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="99"/>
+    </row>
+    <row r="24" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="99"/>
+    </row>
+    <row r="25" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="99"/>
+    </row>
+    <row r="26" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="99"/>
+    </row>
+    <row r="27" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A27" s="94"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="99"/>
+    </row>
+    <row r="28" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="99"/>
+    </row>
+    <row r="29" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A29" s="100"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102"/>
+    </row>
+    <row r="30" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="55"/>
+    </row>
+    <row r="31" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45" t="s">
+      <c r="C31" s="97"/>
+      <c r="D31" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-    </row>
-    <row r="9" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="101"/>
-    </row>
-    <row r="10" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="102"/>
-    </row>
-    <row r="11" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="102"/>
-    </row>
-    <row r="12" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="102"/>
-    </row>
-    <row r="13" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="102"/>
-    </row>
-    <row r="14" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="102"/>
-    </row>
-    <row r="15" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="102"/>
-    </row>
-    <row r="16" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="102"/>
-    </row>
-    <row r="17" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="102"/>
-    </row>
-    <row r="18" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="102"/>
-    </row>
-    <row r="19" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="102"/>
-    </row>
-    <row r="20" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="102"/>
-    </row>
-    <row r="21" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="102"/>
-    </row>
-    <row r="22" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="102"/>
-    </row>
-    <row r="23" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="102"/>
-    </row>
-    <row r="24" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="102"/>
-    </row>
-    <row r="25" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="102"/>
-    </row>
-    <row r="26" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="102"/>
-    </row>
-    <row r="27" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="102"/>
-    </row>
-    <row r="28" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="102"/>
-    </row>
-    <row r="29" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="105"/>
-    </row>
-    <row r="30" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="94" t="s">
+      <c r="E31" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="57"/>
-    </row>
-    <row r="31" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="F31" s="104"/>
+      <c r="G31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="98" t="s">
+      <c r="H31" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100" t="s">
+      <c r="I31" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="J31" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="26" t="s">
+      <c r="K31" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="L31" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="98" t="s">
+      <c r="M31" s="106"/>
+      <c r="N31" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="98" t="s">
+      <c r="O31" s="106"/>
+      <c r="P31" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="108" t="s">
-        <v>65</v>
-      </c>
-      <c r="M31" s="109"/>
-      <c r="N31" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="O31" s="109"/>
-      <c r="P31" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="66"/>
-    </row>
-    <row r="33" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="66"/>
-    </row>
-    <row r="34" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="66"/>
-    </row>
-    <row r="35" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="66"/>
-    </row>
-    <row r="36" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="66"/>
-    </row>
-    <row r="37" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="66"/>
-    </row>
-    <row r="38" spans="1:20" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="66"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="97"/>
+    </row>
+    <row r="32" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="63"/>
+    </row>
+    <row r="33" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="63"/>
+    </row>
+    <row r="34" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="63"/>
+    </row>
+    <row r="35" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="63"/>
+    </row>
+    <row r="36" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="63"/>
+    </row>
+    <row r="37" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="63"/>
+    </row>
+    <row r="38" spans="1:20" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="28"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="D2:K2"/>
@@ -8120,12 +8168,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="Q7:R7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8138,700 +8180,700 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="43.125" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
+      <c r="A2" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="79"/>
+      <c r="B3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="80" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="81"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="80" t="s">
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="83"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="25" t="s">
+      <c r="K5" s="82"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="83"/>
+      <c r="B6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="C6" s="169"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="172"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="80" t="s">
+      <c r="K6" s="82"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="84"/>
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="25" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="82"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="25" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="94" t="s">
+      <c r="H8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>70</v>
+      <c r="I8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="97"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="A20" s="97"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="121"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="118"/>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="111"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="111"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="114"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="114"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="111"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="114"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="111"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="114"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="111"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="114"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="111"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="114"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="114"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="114"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="114"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="114"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="111"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1">
-      <c r="A45" s="97"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="114"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="111"/>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1">
-      <c r="A46" s="97"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="114"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="111"/>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1">
-      <c r="A47" s="97"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="114"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="111"/>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1">
-      <c r="A48" s="97"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="114"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="111"/>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1">
-      <c r="A49" s="103"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="116"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="112"/>
+      <c r="K49" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8846,18 +8888,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8993,13 +9035,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDCC704-205F-4C5B-9088-5EACD9F142A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89594FAD-DF06-408B-9A6A-7BEE91B4DB24}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33909B5-25CC-4867-9A29-2DCE8D35E477}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33909B5-25CC-4867-9A29-2DCE8D35E477}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2741836-0272-4e3d-8a51-652512547cb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>